--- a/practice/Book2.xlsx
+++ b/practice/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40258A1-5EBC-4DBE-9634-37B12F2A88C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D5ADA7-7963-4ADA-B959-C859AFC431DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2800F588-4128-45A5-811B-D20CCD7E40D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2800F588-4128-45A5-811B-D20CCD7E40D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>H-LOOKUP</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>HII</t>
   </si>
 </sst>
 </file>
@@ -226,16 +232,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978CDC1B-AA27-4E8C-B874-E12702D4AF99}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,7 +572,7 @@
     <col min="14" max="14" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,8 +627,12 @@
       <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -687,8 +700,15 @@
         <f>AND(B2,D2&gt;50)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2">
+        <f>INDEX(F2:F11,T2)</f>
+        <v>91</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -736,8 +756,15 @@
         <f>AND(B3,D3&gt;50)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="6">INDEX(F3:F12,T3)</f>
+        <v>84</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,8 +812,15 @@
         <f>AND(B4,D4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -831,11 +865,18 @@
         <v>1</v>
       </c>
       <c r="R5" t="b">
-        <f t="shared" ref="R5:R11" si="6">AND(B5,D5&gt;50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ref="R5:R11" si="7">AND(B5,D5&gt;50)</f>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -880,11 +921,18 @@
         <v>1</v>
       </c>
       <c r="R6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -929,11 +977,18 @@
         <v>1</v>
       </c>
       <c r="R7" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -978,11 +1033,18 @@
         <v>1</v>
       </c>
       <c r="R8" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1027,11 +1089,18 @@
         <v>1</v>
       </c>
       <c r="R9" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1076,11 +1145,18 @@
         <v>1</v>
       </c>
       <c r="R10" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1125,11 +1201,21 @@
         <v>1</v>
       </c>
       <c r="R11" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="S1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1137,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCCD587-1E77-4824-9AEB-7D44FC335AE4}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1151,7 +1237,7 @@
     <col min="8" max="8" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1203,12 +1289,20 @@
         <f t="shared" ref="E3:E9" si="0">SUM(B3:C3)</f>
         <v>73</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="4"/>
+      <c r="K3">
+        <f>IFERROR(VLOOKUP(A4,A1:E9,5,0),"yes")</f>
+        <v>83</v>
+      </c>
+      <c r="M3">
+        <f>_xlfn.IFNA(VLOOKUP(A4,A1:E9,5,0),"yes")</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1320,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1243,16 +1337,16 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="5"/>
       <c r="J5">
         <f>VLOOKUP(A4,A1:E9,5,0)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1269,16 +1363,23 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="5"/>
       <c r="J6">
         <f>VLOOKUP(A2,A1:E9,5,0)</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(M6,A1:E9,4,0),"SORRY")</f>
+        <v>SORRY</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1313,12 +1414,12 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1336,27 +1437,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H10" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="5"/>
       <c r="J10">
         <f>HLOOKUP(E1,A1:E9,9,0)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H11" s="2" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="5"/>
       <c r="J11">
         <f>HLOOKUP(E1,A1:E9,7,0)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1366,19 +1467,19 @@
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>17000</v>
       </c>
     </row>
@@ -1389,13 +1490,13 @@
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>65000</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="5"/>
       <c r="J17">
         <f>_xlfn.XLOOKUP(A17,A16:A19,C16:C19)</f>
         <v>65000</v>
@@ -1408,13 +1509,13 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>45000</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="5"/>
       <c r="J18">
         <f>_xlfn.XLOOKUP(A19,A16:A19,C16:C19)</f>
         <v>25000</v>
@@ -1427,7 +1528,7 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>25000</v>
       </c>
     </row>
@@ -1453,7 +1554,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
